--- a/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
+++ b/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/spring_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E46DA666-927B-4ACF-8263-B52F4A9CFCF7}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="-2070" windowWidth="24705" windowHeight="11385"/>
+    <workbookView xWindow="29355" yWindow="-1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,12 @@
     <definedName name="_xlnm.Database">'May Kenai River Fecals'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'May Kenai River Fecals'!$A:$H</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -188,14 +177,17 @@
   </si>
   <si>
     <t>TNTC</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -231,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,11 +246,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -266,7 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -282,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -292,29 +294,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -696,94 +686,88 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <v>44.5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="G10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,8 +792,11 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I12" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -819,13 +806,13 @@
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>0.10277777777777779</v>
       </c>
       <c r="G13" s="2">
@@ -835,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -845,13 +832,13 @@
       <c r="C14" s="2">
         <v>100</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.4375</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.10277777777777779</v>
       </c>
       <c r="G14" s="2">
@@ -861,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -871,13 +858,13 @@
       <c r="C15" s="2">
         <v>100</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6.7361111111111108E-2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0.12638888888888888</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G15" s="2">
@@ -887,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -897,13 +884,13 @@
       <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>7.8472222222222221E-2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>0.12638888888888888</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G16" s="2">
@@ -913,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -923,13 +910,13 @@
       <c r="C17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.39027777777777778</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G17" s="2">
@@ -939,7 +926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -949,13 +936,13 @@
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.4201388888888889</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G18" s="2">
@@ -965,33 +952,33 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A19" s="17">
+    <row r="19" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1001,13 +988,13 @@
       <c r="C20" s="2">
         <v>100</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.35555555555555557</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>0.10069444444444443</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G20" s="2">
@@ -1017,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1027,13 +1014,13 @@
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.39166666666666666</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>0.10069444444444443</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G21" s="2">
@@ -1043,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1053,13 +1040,13 @@
       <c r="C22" s="2">
         <v>100</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G22" s="2">
@@ -1069,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1079,13 +1066,13 @@
       <c r="C23" s="2">
         <v>100</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.3659722222222222</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G23" s="2">
@@ -1095,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1105,13 +1092,13 @@
       <c r="C24" s="2">
         <v>100</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.39374999999999999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G24" s="2">
@@ -1121,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1131,13 +1118,13 @@
       <c r="C25" s="2">
         <v>100</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.40902777777777777</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G25" s="2">
@@ -1147,7 +1134,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1157,13 +1144,13 @@
       <c r="C26" s="2">
         <v>100</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.43194444444444446</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G26" s="2">
@@ -1173,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1183,13 +1170,13 @@
       <c r="C27" s="2">
         <v>100</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.35902777777777778</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G27" s="2">
@@ -1199,7 +1186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1209,13 +1196,13 @@
       <c r="C28" s="2">
         <v>100</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G28" s="2">
@@ -1225,7 +1212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1235,13 +1222,13 @@
       <c r="C29" s="2">
         <v>100</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G29" s="2">
@@ -1251,7 +1238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1261,13 +1248,13 @@
       <c r="C30" s="2">
         <v>100</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>0.100694444444444</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G30" s="2">
@@ -1277,7 +1264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1287,13 +1274,13 @@
       <c r="C31" s="2">
         <v>100</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G31" s="2">
@@ -1303,30 +1290,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A32" s="17">
+    <row r="32" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A32" s="2">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="17">
-        <v>100</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27" customHeight="1" thickBot="1">
@@ -1339,13 +1326,13 @@
       <c r="C33" s="2">
         <v>100</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G33" s="2">
@@ -1365,13 +1352,13 @@
       <c r="C34" s="2">
         <v>100</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G34" s="2">
@@ -1391,13 +1378,13 @@
       <c r="C35" s="2">
         <v>100</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.35694444444444445</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G35" s="2">
@@ -1417,13 +1404,13 @@
       <c r="C36" s="2">
         <v>100</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.46597222222222223</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G36" s="2">
@@ -1443,13 +1430,13 @@
       <c r="C37" s="2">
         <v>100</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.4375</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G37" s="2">
@@ -1469,13 +1456,13 @@
       <c r="C38" s="2">
         <v>100</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G38" s="2">
@@ -1495,13 +1482,13 @@
       <c r="C39" s="2">
         <v>100</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.3576388888888889</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G39" s="2">
@@ -1521,13 +1508,13 @@
       <c r="C40" s="2">
         <v>0.5</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>9.9305555555555494E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>0.102777777777778</v>
       </c>
       <c r="G40" s="2" t="s">

--- a/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
+++ b/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/spring_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E46DA666-927B-4ACF-8263-B52F4A9CFCF7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3D3919-65B5-40EC-8952-61BFAB37C1DF}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="-1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="-1680" windowWidth="25875" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>LCS</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -298,11 +310,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,6 +335,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -684,9 +703,10 @@
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
+    <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,7 +717,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
@@ -709,8 +729,9 @@
         <v>46</v>
       </c>
       <c r="H2" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -726,8 +747,9 @@
       <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
@@ -741,8 +763,9 @@
         <v>47</v>
       </c>
       <c r="H6" s="10"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -753,21 +776,22 @@
         <v>48</v>
       </c>
       <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:10" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,11 +816,14 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -821,8 +848,11 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I13" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -847,8 +877,11 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I14" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -873,8 +906,11 @@
       <c r="H15" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I15" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -899,8 +935,11 @@
       <c r="H16" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I16" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -925,8 +964,11 @@
       <c r="H17" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I17" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -951,8 +993,11 @@
       <c r="H18" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I18" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -974,11 +1019,14 @@
       <c r="H19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="20" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1003,8 +1051,11 @@
       <c r="H20" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I20" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1029,8 +1080,11 @@
       <c r="H21" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I21" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1055,8 +1109,11 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I22" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1081,8 +1138,11 @@
       <c r="H23" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I23" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1107,8 +1167,11 @@
       <c r="H24" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I24" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1133,8 +1196,11 @@
       <c r="H25" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I25" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1159,8 +1225,11 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I26" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1185,8 +1254,11 @@
       <c r="H27" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I27" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1211,8 +1283,11 @@
       <c r="H28" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I28" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1237,8 +1312,11 @@
       <c r="H29" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I29" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1263,8 +1341,11 @@
       <c r="H30" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I30" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1289,8 +1370,11 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I31" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -1312,11 +1396,14 @@
       <c r="H32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1341,8 +1428,11 @@
       <c r="H33" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I33" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -1367,8 +1457,11 @@
       <c r="H34" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I34" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -1393,8 +1486,11 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I35" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>24</v>
       </c>
@@ -1419,8 +1515,11 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I36" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -1445,8 +1544,11 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I37" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>26</v>
       </c>
@@ -1471,8 +1573,11 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I38" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -1497,8 +1602,11 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="27.95" customHeight="1" thickBot="1">
+      <c r="I39" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27.95" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>28</v>
       </c>
@@ -1523,29 +1631,32 @@
       <c r="H40" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="27.95" customHeight="1">
+      <c r="I40" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.95" customHeight="1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:8" ht="27.95" customHeight="1">
+    <row r="42" spans="1:9" ht="27.95" customHeight="1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:8" ht="27.95" customHeight="1">
+    <row r="43" spans="1:9" ht="27.95" customHeight="1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:8" ht="27.95" customHeight="1">
+    <row r="44" spans="1:9" ht="27.95" customHeight="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:8" ht="27.95" customHeight="1">
+    <row r="45" spans="1:9" ht="27.95" customHeight="1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:8" ht="27.95" customHeight="1">
+    <row r="46" spans="1:9" ht="27.95" customHeight="1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:8" ht="27.95" customHeight="1">
+    <row r="47" spans="1:9" ht="27.95" customHeight="1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:8" ht="27.95" customHeight="1">
+    <row r="48" spans="1:9" ht="27.95" customHeight="1">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" ht="27.95" customHeight="1">

--- a/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
+++ b/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/spring_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3D3919-65B5-40EC-8952-61BFAB37C1DF}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DE7D5A-9ABA-4A11-82B1-82B93788D727}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="-1680" windowWidth="25875" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="21765" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>LCS</t>
+  </si>
+  <si>
+    <t>rec_time</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,7 +320,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -706,7 +710,7 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
+    <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,7 +721,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
@@ -731,7 +735,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -749,7 +753,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
@@ -765,7 +769,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -778,7 +782,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
@@ -788,10 +792,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="J12" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K12" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -848,11 +855,11 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -877,11 +884,14 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -906,11 +916,14 @@
       <c r="H15" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -935,11 +948,14 @@
       <c r="H16" s="2">
         <v>12</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -964,11 +980,14 @@
       <c r="H17" s="2">
         <v>40</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -993,11 +1012,14 @@
       <c r="H18" s="2">
         <v>47</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1019,14 +1041,17 @@
       <c r="H19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K19" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1051,11 +1076,14 @@
       <c r="H20" s="2">
         <v>24</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1080,11 +1108,14 @@
       <c r="H21" s="2">
         <v>33</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1109,11 +1140,11 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1138,11 +1169,14 @@
       <c r="H23" s="2">
         <v>32</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1167,11 +1201,14 @@
       <c r="H24" s="2">
         <v>24</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1196,11 +1233,14 @@
       <c r="H25" s="2">
         <v>192</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1225,11 +1265,14 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1254,11 +1297,14 @@
       <c r="H27" s="2">
         <v>36</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1283,11 +1329,14 @@
       <c r="H28" s="2">
         <v>22</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1312,11 +1361,14 @@
       <c r="H29" s="2">
         <v>48</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1341,11 +1393,14 @@
       <c r="H30" s="2">
         <v>64</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="I30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1370,11 +1425,11 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -1396,14 +1451,15 @@
       <c r="H32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1428,11 +1484,17 @@
       <c r="H33" s="2">
         <v>48</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -1457,11 +1519,14 @@
       <c r="H34" s="2">
         <v>128</v>
       </c>
-      <c r="I34" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -1486,11 +1551,14 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>24</v>
       </c>
@@ -1515,11 +1583,14 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -1544,11 +1615,14 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>26</v>
       </c>
@@ -1573,11 +1647,14 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -1602,11 +1679,14 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="27.95" customHeight="1" thickBot="1">
+      <c r="I39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="27.95" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>28</v>
       </c>
@@ -1631,32 +1711,32 @@
       <c r="H40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="27.95" customHeight="1">
+    <row r="41" spans="1:12" ht="27.95" customHeight="1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:9" ht="27.95" customHeight="1">
+    <row r="42" spans="1:12" ht="27.95" customHeight="1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:9" ht="27.95" customHeight="1">
+    <row r="43" spans="1:12" ht="27.95" customHeight="1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:9" ht="27.95" customHeight="1">
+    <row r="44" spans="1:12" ht="27.95" customHeight="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:9" ht="27.95" customHeight="1">
+    <row r="45" spans="1:12" ht="27.95" customHeight="1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:9" ht="27.95" customHeight="1">
+    <row r="46" spans="1:12" ht="27.95" customHeight="1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:9" ht="27.95" customHeight="1">
+    <row r="47" spans="1:12" ht="27.95" customHeight="1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:9" ht="27.95" customHeight="1">
+    <row r="48" spans="1:12" ht="27.95" customHeight="1">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" ht="27.95" customHeight="1">

--- a/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
+++ b/other/input/2023/spring_2023_wqx_data/Data/SWWTP/KRWF Fecal 05-02-23.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/spring_2023_wqx_data/Data/SWWTP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx-qaqc\other\input\2023\spring_2023_wqx_data\Data\SWWTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{0A9A4A75-8C79-45C6-BAA9-1AF767A9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DE7D5A-9ABA-4A11-82B1-82B93788D727}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="585" windowWidth="21765" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="21765" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -316,14 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,11 +691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -783,11 +782,11 @@
       <c r="I8" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
@@ -826,7 +825,7 @@
       <c r="J12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -887,7 +886,7 @@
       <c r="I14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -902,7 +901,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="8">
-        <v>6.7361111111111108E-2</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="E15" s="9">
         <v>0.12638888888888888</v>
@@ -919,8 +918,8 @@
       <c r="I15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="17">
-        <v>0.4861111111111111</v>
+      <c r="K15" s="15">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1" thickBot="1">
@@ -934,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="8">
-        <v>7.8472222222222221E-2</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="E16" s="9">
         <v>0.12638888888888888</v>
@@ -951,8 +950,8 @@
       <c r="I16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="17">
-        <v>0.4861111111111111</v>
+      <c r="K16" s="15">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="27" customHeight="1" thickBot="1">
@@ -983,7 +982,7 @@
       <c r="I17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1015,7 +1014,7 @@
       <c r="I18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1047,7 +1046,7 @@
       <c r="J19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1079,7 +1078,7 @@
       <c r="I20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1111,7 +1110,7 @@
       <c r="I21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1172,7 +1171,7 @@
       <c r="I23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1204,7 +1203,7 @@
       <c r="I24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1236,7 +1235,7 @@
       <c r="I25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1268,7 +1267,7 @@
       <c r="I26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1300,7 +1299,7 @@
       <c r="I27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1332,7 +1331,7 @@
       <c r="I28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1364,7 +1363,7 @@
       <c r="I29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1396,7 +1395,7 @@
       <c r="I30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1457,7 +1456,7 @@
       <c r="J32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="17"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="2">
@@ -1487,7 +1486,7 @@
       <c r="I33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="15">
         <v>0.53055555555555556</v>
       </c>
       <c r="L33" t="s">
@@ -1522,7 +1521,7 @@
       <c r="I34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <v>0.53055555555555556</v>
       </c>
     </row>
@@ -1554,7 +1553,7 @@
       <c r="I35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="15">
         <v>0.4861111111111111</v>
       </c>
     </row>
@@ -1586,7 +1585,7 @@
       <c r="I36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="15">
         <v>0.53055555555555556</v>
       </c>
     </row>
@@ -1618,7 +1617,7 @@
       <c r="I37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <v>0.53055555555555556</v>
       </c>
     </row>
@@ -1650,7 +1649,7 @@
       <c r="I38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="15">
         <v>0.53055555555555556</v>
       </c>
     </row>
@@ -1682,7 +1681,7 @@
       <c r="I39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="15">
         <v>0.53055555555555556</v>
       </c>
     </row>
